--- a/pred_ohlcv/54_21/2020-01-15 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6090.897400000003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5825.716800000003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6153.451200000003</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6045.635500000003</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-17872.1778</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-17869.1778</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16028.3855</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16028.3855</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16028.3855</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16078.3855</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-13257.7255</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14252.16</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-27970.52417424</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-24971.78367424</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-24989.78367424</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16599.75107424</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-10071.34417424</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-10579.20517424</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9746.475174239997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-10420.69257424</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-9673.215274239996</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6153.451200000003</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6045.635500000003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5981.739400000003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-17872.1778</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16028.3855</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16078.3855</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-12143.452</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-13257.7255</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-12757.7255</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-26074.67247424</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-26074.67247424</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-31556.79807424</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-24971.78367424</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-10071.34417424</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-10046.02517424</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-10420.69257424</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-9673.215274239996</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
